--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H2">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N2">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O2">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P2">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q2">
-        <v>1680.873274667166</v>
+        <v>2057.673576003014</v>
       </c>
       <c r="R2">
-        <v>15127.8594720045</v>
+        <v>18519.06218402712</v>
       </c>
       <c r="S2">
-        <v>0.03399262233324614</v>
+        <v>0.03082092624185367</v>
       </c>
       <c r="T2">
-        <v>0.03399262233324614</v>
+        <v>0.03082092624185367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H3">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>166.821129</v>
       </c>
       <c r="O3">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P3">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q3">
-        <v>2710.656117336219</v>
+        <v>2661.486553418881</v>
       </c>
       <c r="R3">
-        <v>24395.90505602597</v>
+        <v>23953.37898076992</v>
       </c>
       <c r="S3">
-        <v>0.05481811809409531</v>
+        <v>0.0398651572889171</v>
       </c>
       <c r="T3">
-        <v>0.05481811809409529</v>
+        <v>0.0398651572889171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H4">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N4">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O4">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P4">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q4">
-        <v>1482.140076454786</v>
+        <v>1757.849556402383</v>
       </c>
       <c r="R4">
-        <v>13339.26068809308</v>
+        <v>15820.64600762145</v>
       </c>
       <c r="S4">
-        <v>0.02997360278327486</v>
+        <v>0.02633000304518354</v>
       </c>
       <c r="T4">
-        <v>0.02997360278327486</v>
+        <v>0.02633000304518354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H5">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N5">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O5">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P5">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q5">
-        <v>329.545665307274</v>
+        <v>353.2969143175709</v>
       </c>
       <c r="R5">
-        <v>2965.910987765466</v>
+        <v>3179.672228858138</v>
       </c>
       <c r="S5">
-        <v>0.006664465139150157</v>
+        <v>0.005291868576554243</v>
       </c>
       <c r="T5">
-        <v>0.006664465139150157</v>
+        <v>0.005291868576554244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H6">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N6">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O6">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P6">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q6">
-        <v>1458.240333494382</v>
+        <v>1368.883826401734</v>
       </c>
       <c r="R6">
-        <v>13124.16300144943</v>
+        <v>12319.9544376156</v>
       </c>
       <c r="S6">
-        <v>0.02949027370156549</v>
+        <v>0.02050386802806105</v>
       </c>
       <c r="T6">
-        <v>0.02949027370156549</v>
+        <v>0.02050386802806106</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J7">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N7">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O7">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P7">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q7">
-        <v>643.281450794889</v>
+        <v>802.033827068457</v>
       </c>
       <c r="R7">
-        <v>5789.533057154</v>
+        <v>7218.304443616112</v>
       </c>
       <c r="S7">
-        <v>0.0130092040491174</v>
+        <v>0.01201328807242861</v>
       </c>
       <c r="T7">
-        <v>0.01300920404911739</v>
+        <v>0.01201328807242861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J8">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>166.821129</v>
       </c>
       <c r="O8">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P8">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q8">
         <v>1037.386236098828</v>
@@ -948,10 +948,10 @@
         <v>9336.476124889452</v>
       </c>
       <c r="S8">
-        <v>0.02097926064319024</v>
+        <v>0.01553852128928216</v>
       </c>
       <c r="T8">
-        <v>0.02097926064319023</v>
+        <v>0.01553852128928216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J9">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N9">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O9">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P9">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q9">
-        <v>567.2249258956622</v>
+        <v>685.1693211080667</v>
       </c>
       <c r="R9">
-        <v>5105.024333060959</v>
+        <v>6166.523889972601</v>
       </c>
       <c r="S9">
-        <v>0.01147109837164419</v>
+        <v>0.01026282951549247</v>
       </c>
       <c r="T9">
-        <v>0.01147109837164419</v>
+        <v>0.01026282951549248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J10">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N10">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O10">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P10">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q10">
-        <v>126.1193314671547</v>
+        <v>137.7070102790605</v>
       </c>
       <c r="R10">
-        <v>1135.073983204392</v>
+        <v>1239.363092511544</v>
       </c>
       <c r="S10">
-        <v>0.002550535408050543</v>
+        <v>0.002062648641793556</v>
       </c>
       <c r="T10">
-        <v>0.002550535408050543</v>
+        <v>0.002062648641793557</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J11">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N11">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O11">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P11">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q11">
-        <v>558.0783343251356</v>
+        <v>533.5594269688419</v>
       </c>
       <c r="R11">
-        <v>5022.70500892622</v>
+        <v>4802.034842719576</v>
       </c>
       <c r="S11">
-        <v>0.01128612509758525</v>
+        <v>0.007991936104946267</v>
       </c>
       <c r="T11">
-        <v>0.01128612509758525</v>
+        <v>0.007991936104946269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H12">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N12">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O12">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P12">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q12">
-        <v>3367.543244360223</v>
+        <v>7354.110824168002</v>
       </c>
       <c r="R12">
-        <v>30307.889199242</v>
+        <v>66186.99741751202</v>
       </c>
       <c r="S12">
-        <v>0.0681024723408005</v>
+        <v>0.1101537726534754</v>
       </c>
       <c r="T12">
-        <v>0.06810247234080048</v>
+        <v>0.1101537726534754</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H13">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>166.821129</v>
       </c>
       <c r="O13">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P13">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q13">
-        <v>5430.660260528445</v>
+        <v>9512.134139806203</v>
       </c>
       <c r="R13">
-        <v>48875.942344756</v>
+        <v>85609.20725825582</v>
       </c>
       <c r="S13">
-        <v>0.1098252831064049</v>
+        <v>0.1424777905225701</v>
       </c>
       <c r="T13">
-        <v>0.1098252831064049</v>
+        <v>0.1424777905225701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H14">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N14">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O14">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P14">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q14">
-        <v>2969.391492436675</v>
+        <v>6282.541896226768</v>
       </c>
       <c r="R14">
-        <v>26724.52343193008</v>
+        <v>56542.87706604091</v>
       </c>
       <c r="S14">
-        <v>0.06005057316527378</v>
+        <v>0.09410324487477265</v>
       </c>
       <c r="T14">
-        <v>0.06005057316527378</v>
+        <v>0.09410324487477266</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H15">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N15">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O15">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P15">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q15">
-        <v>660.2278087462907</v>
+        <v>1262.680675899489</v>
       </c>
       <c r="R15">
-        <v>5942.050278716617</v>
+        <v>11364.1260830954</v>
       </c>
       <c r="S15">
-        <v>0.01335191349333773</v>
+        <v>0.01891310090811754</v>
       </c>
       <c r="T15">
-        <v>0.01335191349333773</v>
+        <v>0.01891310090811755</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H16">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N16">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O16">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P16">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q16">
-        <v>2921.509585358229</v>
+        <v>4892.381125058855</v>
       </c>
       <c r="R16">
-        <v>26293.58626822406</v>
+        <v>44031.43012552969</v>
       </c>
       <c r="S16">
-        <v>0.0590822481829901</v>
+        <v>0.07328067948239773</v>
       </c>
       <c r="T16">
-        <v>0.05908224818299009</v>
+        <v>0.07328067948239775</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H17">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N17">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O17">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P17">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q17">
-        <v>373.5924692526111</v>
+        <v>542.897941755076</v>
       </c>
       <c r="R17">
-        <v>3362.3322232735</v>
+        <v>4886.081475795684</v>
       </c>
       <c r="S17">
-        <v>0.00755523209586607</v>
+        <v>0.008131813332700764</v>
       </c>
       <c r="T17">
-        <v>0.007555232095866069</v>
+        <v>0.008131813332700766</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H18">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>166.821129</v>
       </c>
       <c r="O18">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P18">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q18">
-        <v>602.472968921977</v>
+        <v>702.2083525350209</v>
       </c>
       <c r="R18">
-        <v>5422.256720297793</v>
+        <v>6319.875172815188</v>
       </c>
       <c r="S18">
-        <v>0.01218392630022006</v>
+        <v>0.01051804916595953</v>
       </c>
       <c r="T18">
-        <v>0.01218392630022006</v>
+        <v>0.01051804916595953</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H19">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N19">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O19">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P19">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q19">
-        <v>329.4218423757377</v>
+        <v>463.7921763760501</v>
       </c>
       <c r="R19">
-        <v>2964.796581381639</v>
+        <v>4174.12958738445</v>
       </c>
       <c r="S19">
-        <v>0.006661961044277961</v>
+        <v>0.006946925219986443</v>
       </c>
       <c r="T19">
-        <v>0.00666196104427796</v>
+        <v>0.006946925219986444</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H20">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N20">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O20">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P20">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q20">
-        <v>73.24512840387533</v>
+        <v>93.21408888576201</v>
       </c>
       <c r="R20">
-        <v>659.206155634878</v>
+        <v>838.926799971858</v>
       </c>
       <c r="S20">
-        <v>0.001481250267409994</v>
+        <v>0.001396210065461546</v>
       </c>
       <c r="T20">
-        <v>0.001481250267409994</v>
+        <v>0.001396210065461547</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H21">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N21">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O21">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P21">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q21">
-        <v>324.1098631077894</v>
+        <v>361.1672038374981</v>
       </c>
       <c r="R21">
-        <v>2916.988767970105</v>
+        <v>3250.504834537482</v>
       </c>
       <c r="S21">
-        <v>0.006554535869626912</v>
+        <v>0.005409753947501609</v>
       </c>
       <c r="T21">
-        <v>0.006554535869626912</v>
+        <v>0.00540975394750161</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H22">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N22">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O22">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P22">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q22">
-        <v>4783.316977550223</v>
+        <v>5997.970169124756</v>
       </c>
       <c r="R22">
-        <v>43049.852797952</v>
+        <v>53981.73152212281</v>
       </c>
       <c r="S22">
-        <v>0.09673393584668982</v>
+        <v>0.08984077860518822</v>
       </c>
       <c r="T22">
-        <v>0.09673393584668982</v>
+        <v>0.08984077860518823</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H23">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>166.821129</v>
       </c>
       <c r="O23">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P23">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q23">
-        <v>7713.804259825665</v>
+        <v>7758.041479028901</v>
       </c>
       <c r="R23">
-        <v>69424.23833843099</v>
+        <v>69822.3733112601</v>
       </c>
       <c r="S23">
-        <v>0.1559977417148002</v>
+        <v>0.116204060252772</v>
       </c>
       <c r="T23">
-        <v>0.1559977417148002</v>
+        <v>0.1162040602527721</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H24">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N24">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O24">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P24">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q24">
-        <v>4217.775306242275</v>
+        <v>5124.004761528433</v>
       </c>
       <c r="R24">
-        <v>37959.97775618048</v>
+        <v>46116.04285375591</v>
       </c>
       <c r="S24">
-        <v>0.08529687825512897</v>
+        <v>0.07675006116603965</v>
       </c>
       <c r="T24">
-        <v>0.08529687825512897</v>
+        <v>0.07675006116603966</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H25">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N25">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O25">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P25">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q25">
-        <v>937.7990592744108</v>
+        <v>1029.835041686666</v>
       </c>
       <c r="R25">
-        <v>8440.191533469697</v>
+        <v>9268.515375179995</v>
       </c>
       <c r="S25">
-        <v>0.01896529008274038</v>
+        <v>0.01542541549411166</v>
       </c>
       <c r="T25">
-        <v>0.01896529008274038</v>
+        <v>0.01542541549411166</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H26">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N26">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O26">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P26">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q26">
-        <v>4149.763012879929</v>
+        <v>3990.197692922565</v>
       </c>
       <c r="R26">
-        <v>37347.86711591937</v>
+        <v>35911.77923630308</v>
       </c>
       <c r="S26">
-        <v>0.08392145261351304</v>
+        <v>0.05976729750443222</v>
       </c>
       <c r="T26">
-        <v>0.08392145261351303</v>
+        <v>0.05976729750443223</v>
       </c>
     </row>
   </sheetData>
